--- a/kapitel-4/daten.xlsx
+++ b/kapitel-4/daten.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/65ff0e6be96a7d93/Documents/Juri-Apps/repo/kapitel-4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="80" documentId="8_{FBBF997F-FC1E-4FD5-BE9E-7A51ADE41ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97649638-1731-46C4-8D3B-E16D0F45DA67}"/>
+  <xr:revisionPtr revIDLastSave="81" documentId="8_{FBBF997F-FC1E-4FD5-BE9E-7A51ADE41ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56E4B354-58A5-49AA-A519-7519ED172ECF}"/>
   <bookViews>
-    <workbookView xWindow="585" yWindow="1425" windowWidth="28215" windowHeight="14775" xr2:uid="{B88C24DA-E75C-4874-B351-0DDB6B0ABB26}"/>
+    <workbookView xWindow="585" yWindow="780" windowWidth="28215" windowHeight="14775" xr2:uid="{B88C24DA-E75C-4874-B351-0DDB6B0ABB26}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -528,7 +528,8 @@
   <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
